--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.261437</v>
+        <v>0.8793530000000001</v>
       </c>
       <c r="N2">
-        <v>63.784311</v>
+        <v>2.638059</v>
       </c>
       <c r="O2">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="P2">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="Q2">
-        <v>574.8859893807763</v>
+        <v>5.487257690123999</v>
       </c>
       <c r="R2">
-        <v>5173.973904426987</v>
+        <v>49.385319211116</v>
       </c>
       <c r="S2">
-        <v>0.05934630074621392</v>
+        <v>0.003021851691794568</v>
       </c>
       <c r="T2">
-        <v>0.05934630074621393</v>
+        <v>0.003021851691794569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>9.964821000000001</v>
       </c>
       <c r="O3">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="P3">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="Q3">
-        <v>89.81261833473967</v>
+        <v>20.727186413556</v>
       </c>
       <c r="R3">
-        <v>808.313565012657</v>
+        <v>186.544677722004</v>
       </c>
       <c r="S3">
-        <v>0.009271484706453725</v>
+        <v>0.0114145328809098</v>
       </c>
       <c r="T3">
-        <v>0.009271484706453727</v>
+        <v>0.01141453288090981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.519392</v>
       </c>
       <c r="O4">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="P4">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="Q4">
-        <v>22.70720087511822</v>
+        <v>5.240426058111999</v>
       </c>
       <c r="R4">
-        <v>204.364807876064</v>
+        <v>47.16383452300799</v>
       </c>
       <c r="S4">
-        <v>0.002344096737669634</v>
+        <v>0.002885920662689387</v>
       </c>
       <c r="T4">
-        <v>0.002344096737669635</v>
+        <v>0.002885920662689387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.261437</v>
+        <v>0.8793530000000001</v>
       </c>
       <c r="N5">
-        <v>63.784311</v>
+        <v>2.638059</v>
       </c>
       <c r="O5">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="P5">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="Q5">
-        <v>7347.242048714023</v>
+        <v>303.875007943387</v>
       </c>
       <c r="R5">
-        <v>66125.1784384262</v>
+        <v>2734.875071490483</v>
       </c>
       <c r="S5">
-        <v>0.7584662773707037</v>
+        <v>0.1673450125188236</v>
       </c>
       <c r="T5">
-        <v>0.7584662773707038</v>
+        <v>0.1673450125188236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>9.964821000000001</v>
       </c>
       <c r="O6">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="P6">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="Q6">
         <v>1147.836367772453</v>
@@ -818,10 +818,10 @@
         <v>10330.52730995208</v>
       </c>
       <c r="S6">
-        <v>0.1184927856089159</v>
+        <v>0.6321174374768859</v>
       </c>
       <c r="T6">
-        <v>0.1184927856089159</v>
+        <v>0.6321174374768861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.519392</v>
       </c>
       <c r="O7">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="P7">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="Q7">
         <v>290.2058915333226</v>
@@ -880,10 +880,10 @@
         <v>2611.853023799903</v>
       </c>
       <c r="S7">
-        <v>0.02995836815541571</v>
+        <v>0.1598173830758993</v>
       </c>
       <c r="T7">
-        <v>0.02995836815541571</v>
+        <v>0.1598173830758994</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.261437</v>
+        <v>0.8793530000000001</v>
       </c>
       <c r="N8">
-        <v>63.784311</v>
+        <v>2.638059</v>
       </c>
       <c r="O8">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="P8">
-        <v>0.8363123822876132</v>
+        <v>0.1744485881486592</v>
       </c>
       <c r="Q8">
-        <v>179.2070961507974</v>
+        <v>7.411836632749333</v>
       </c>
       <c r="R8">
-        <v>1612.863865357176</v>
+        <v>66.70652969474401</v>
       </c>
       <c r="S8">
-        <v>0.0184998041706955</v>
+        <v>0.004081723938040969</v>
       </c>
       <c r="T8">
-        <v>0.01849980417069551</v>
+        <v>0.004081723938040971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>9.964821000000001</v>
       </c>
       <c r="O9">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="P9">
-        <v>0.1306544361603222</v>
+        <v>0.6589499911124466</v>
       </c>
       <c r="Q9">
-        <v>27.99695735637067</v>
+        <v>27.99695735637066</v>
       </c>
       <c r="R9">
         <v>251.972616207336</v>
       </c>
       <c r="S9">
-        <v>0.002890165844952595</v>
+        <v>0.0154180207546508</v>
       </c>
       <c r="T9">
-        <v>0.002890165844952596</v>
+        <v>0.01541802075465081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>2.519392</v>
       </c>
       <c r="O10">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="P10">
-        <v>0.03303318155206465</v>
+        <v>0.1666014207388943</v>
       </c>
       <c r="Q10">
-        <v>7.078432255630223</v>
+        <v>7.078432255630221</v>
       </c>
       <c r="R10">
         <v>63.705890300672</v>
       </c>
       <c r="S10">
-        <v>0.000730716658979304</v>
+        <v>0.003898117000305495</v>
       </c>
       <c r="T10">
-        <v>0.0007307166589793042</v>
+        <v>0.003898117000305496</v>
       </c>
     </row>
   </sheetData>
